--- a/Table S1.xlsx
+++ b/Table S1.xlsx
@@ -14,26 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
-  <si>
-    <t xml:space="preserve"> Table S1: Viral species identified in four brain pools by RNA-Seq analysis, including those of human and veterinary concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Pools (GenBank Accession codes)</t>
-  </si>
-  <si>
-    <t>Virus ID</t>
-  </si>
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+  <si>
+    <r>
+      <t xml:space="preserve">Table S1: Viral species identified in brain samples from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Molossus molossus</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1                      </t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Desmodus rotundus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bats</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    RNA-Seq pools </t>
+  </si>
+  <si>
+    <t>Virus ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1                             </t>
     </r>
     <r>
       <rPr>
@@ -69,14 +102,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2                     </t>
+      <t xml:space="preserve">2                         </t>
     </r>
     <r>
       <rPr>
@@ -112,14 +138,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3                      </t>
+      <t xml:space="preserve">3                              </t>
     </r>
     <r>
       <rPr>
@@ -206,13 +225,16 @@
     <t xml:space="preserve">Jaagsiekte sheep retrovirus </t>
   </si>
   <si>
-    <t>PP707048.1</t>
-  </si>
-  <si>
-    <t>OR729406.1</t>
-  </si>
-  <si>
-    <t>PP707047.1</t>
+    <t>Contigs 1-3, 5, 7-9</t>
+  </si>
+  <si>
+    <t>Contigs 2 and 3</t>
+  </si>
+  <si>
+    <t>Contigs 2-4, 6, 9-10</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Ovine</t>
@@ -242,7 +264,7 @@
     <t>Koala retrovirus</t>
   </si>
   <si>
-    <t>NC_039228.1</t>
+    <t xml:space="preserve"> Contig 1</t>
   </si>
   <si>
     <t>Koala</t>
@@ -272,7 +294,7 @@
     <t>Gibbon ape leukemia virus</t>
   </si>
   <si>
-    <t>KT724047.1</t>
+    <t>Contigs 1 and 4</t>
   </si>
   <si>
     <t>Non-human primate</t>
@@ -302,10 +324,10 @@
     <t>Lyssavirus rabies</t>
   </si>
   <si>
-    <t>KM594035.1</t>
-  </si>
-  <si>
-    <t>PP389312.1</t>
+    <t>Contig 1</t>
+  </si>
+  <si>
+    <t>Contigs 1-6</t>
   </si>
   <si>
     <t>Bat</t>
@@ -332,29 +354,22 @@
     </r>
   </si>
   <si>
-    <t>Feline sarcoma virus</t>
-  </si>
-  <si>
-    <t>MF681667.1</t>
+    <t>Feline leukemia virus</t>
+  </si>
+  <si>
+    <t>Contigs 4 and 6</t>
   </si>
   <si>
     <t>Cougar</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>High</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -362,10 +377,10 @@
     </r>
   </si>
   <si>
-    <t>Porcine type-C oncovirus</t>
-  </si>
-  <si>
-    <t>NC_003059.1</t>
+    <t>Porcine endogenous retrovirus E</t>
+  </si>
+  <si>
+    <t>Contigs 1 and 2</t>
   </si>
   <si>
     <t>Porcine</t>
@@ -395,7 +410,7 @@
     <t>RD114 retrovirus</t>
   </si>
   <si>
-    <t>NC_009889.1</t>
+    <t>Contig 5</t>
   </si>
   <si>
     <t>Feline</t>
@@ -425,7 +440,10 @@
     <t>Mason-Pfizer monkey virus</t>
   </si>
   <si>
-    <t>NC_001550.1</t>
+    <t>Contigs 1-2, 5-8</t>
+  </si>
+  <si>
+    <t>Contigs 4,5 and 7</t>
   </si>
   <si>
     <r>
@@ -452,13 +470,10 @@
     <t>Friend murine leukemia virus</t>
   </si>
   <si>
-    <t>NC_001362.1</t>
-  </si>
-  <si>
-    <t>K02714.1</t>
-  </si>
-  <si>
-    <t>GQ420673.1</t>
+    <t>Contig 7</t>
+  </si>
+  <si>
+    <t>Contig 6</t>
   </si>
   <si>
     <t>Mice</t>
@@ -488,13 +503,19 @@
     <t>Bovine retrovirus CH15</t>
   </si>
   <si>
-    <t>OM339158.1</t>
+    <t>Contigs 4 and 5</t>
   </si>
   <si>
     <t>Bovine</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>TBD</t>
     </r>
     <r>
@@ -719,6 +740,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>10</t>
     </r>
     <r>
@@ -740,12 +769,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +785,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -769,6 +797,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -805,7 +845,75 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,16 +927,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,18 +956,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,87 +981,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -969,6 +1016,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1003,187 +1056,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,17 +1414,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,16 +1454,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,16 +1488,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1449,166 +1511,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,61 +1674,79 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,16 +2073,16 @@
   <sheetPr/>
   <dimension ref="C5:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -2022,11 +2093,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="3"/>
@@ -2075,232 +2146,276 @@
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>18</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>22</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>27</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>31</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>35</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>39</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="24" t="s">
         <v>48</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="E17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>52</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="14" t="s">
-        <v>53</v>
+      <c r="C18" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="15" t="s">
-        <v>54</v>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="15" t="s">
-        <v>55</v>
+      <c r="C20" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="16" t="s">
-        <v>56</v>
+      <c r="C21" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="16" t="s">
-        <v>57</v>
+      <c r="C22" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="15" t="s">
-        <v>58</v>
+      <c r="C23" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
-        <v>59</v>
+      <c r="C24" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="15" t="s">
-        <v>60</v>
+      <c r="C25" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="15" t="s">
-        <v>61</v>
+      <c r="C26" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="15" t="s">
-        <v>62</v>
+      <c r="C27" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="17" t="s">
-        <v>63</v>
+      <c r="C28" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
